--- a/biology/Histoire de la zoologie et de la botanique/Gaetano_Savi/Gaetano_Savi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaetano_Savi/Gaetano_Savi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaetano Savi est un naturaliste italien, né le 13 juin 1769 à Florence et mort le 28 avril 1844 à Pise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaetano Savi suit l’enseignement de Giorgio Santi (1746-1822) et de Adolfo Targioni Tozzetti (1823-1902). Savi fait paraître en 1798 une Flora pisana, en 1801, la première édition du Trattato degli alberi della Toscana, en 1808 de Botanicon Etruscum et en 1818 de la Flora Italiana. Il enseigne la physique et la botanique à l’université de Pise et dirige le jardin botanique à partir de 1814. Le naturaliste Paolo Savi (1798-1871) est son fils.
 </t>
